--- a/pred_ohlcv/54_21/2020-01-19 ZEC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-19 ZEC ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>634.9843987</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>486.6952987000001</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>506.0379987000001</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>405.7186987000001</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>284.9494987</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>1046.4549987</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -652,7 +652,7 @@
         <v>1331.32453634</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>1311.14773634</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>1287.13953634</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>1287.13953634</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>1314.47623634</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>1418.10843634</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>1229.98604298</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>1038.19405747</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>1241.83478539</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>1355.581489160001</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -938,7 +938,7 @@
         <v>1762.31558916</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>1627.65578916</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>1627.65578916</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>1488.217289160001</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>1491.710989160001</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>1252.669189160001</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>1271.718889160001</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>1476.037589160001</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>1579.101589160001</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>1604.656789160001</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>1579.374989160001</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>3036.66470162</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>2909.31746678</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>3014.20926678</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>2974.72911645</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>3113.41691645</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>3010.25251645</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>3010.25251645</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>2995.47381645</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>2919.71831645</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>3043.50501645</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>3146.75731645</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>3145.83051645</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>3143.04861645</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>3015.51591645</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>2443.70901645</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>2227.96011645</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>3284.11695911</v>
       </c>
       <c r="H275">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>3283.11695911</v>
       </c>
       <c r="H276">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -13704,7 +13704,7 @@
         <v>2021.31600602</v>
       </c>
       <c r="H512">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -13860,7 +13860,7 @@
         <v>2049.45280602</v>
       </c>
       <c r="H518">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -13886,7 +13886,7 @@
         <v>2045.85280602</v>
       </c>
       <c r="H519">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -13938,7 +13938,7 @@
         <v>2028.13970602</v>
       </c>
       <c r="H521">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -13964,7 +13964,7 @@
         <v>2029.53230602</v>
       </c>
       <c r="H522">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -14146,7 +14146,7 @@
         <v>2003.077162</v>
       </c>
       <c r="H529">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -14172,7 +14172,7 @@
         <v>2002.477162</v>
       </c>
       <c r="H530">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -14224,7 +14224,7 @@
         <v>1928.641962</v>
       </c>
       <c r="H532">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -15030,7 +15030,7 @@
         <v>1706.19606282</v>
       </c>
       <c r="H563">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="564" spans="1:8">
@@ -15082,7 +15082,7 @@
         <v>1699.88606282</v>
       </c>
       <c r="H565">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="566" spans="1:8">
@@ -15160,7 +15160,7 @@
         <v>1701.46786282</v>
       </c>
       <c r="H568">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="569" spans="1:8">
@@ -15186,7 +15186,7 @@
         <v>1706.29396282</v>
       </c>
       <c r="H569">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="570" spans="1:8">
@@ -15212,7 +15212,7 @@
         <v>1772.29396282</v>
       </c>
       <c r="H570">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="571" spans="1:8">
@@ -15238,7 +15238,7 @@
         <v>1768.00596282</v>
       </c>
       <c r="H571">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="572" spans="1:8">
@@ -15264,7 +15264,7 @@
         <v>1768.30596282</v>
       </c>
       <c r="H572">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="573" spans="1:8">
@@ -15290,7 +15290,7 @@
         <v>1659.70596282</v>
       </c>
       <c r="H573">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="574" spans="1:8">
@@ -15316,7 +15316,7 @@
         <v>1659.70596282</v>
       </c>
       <c r="H574">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="575" spans="1:8">
@@ -15342,7 +15342,7 @@
         <v>1658.70596282</v>
       </c>
       <c r="H575">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="576" spans="1:8">
@@ -15368,7 +15368,7 @@
         <v>1658.70596282</v>
       </c>
       <c r="H576">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="577" spans="1:8">
@@ -15394,7 +15394,7 @@
         <v>1658.70596282</v>
       </c>
       <c r="H577">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="578" spans="1:8">
@@ -15420,7 +15420,7 @@
         <v>1658.60576282</v>
       </c>
       <c r="H578">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="579" spans="1:8">
@@ -15550,7 +15550,7 @@
         <v>1682.10216282</v>
       </c>
       <c r="H583">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="584" spans="1:8">
@@ -15576,7 +15576,7 @@
         <v>1682.14256282</v>
       </c>
       <c r="H584">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="585" spans="1:8">
@@ -15602,7 +15602,7 @@
         <v>1682.14256282</v>
       </c>
       <c r="H585">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="586" spans="1:8">
@@ -15628,7 +15628,7 @@
         <v>1680.05576282</v>
       </c>
       <c r="H586">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="587" spans="1:8">
@@ -15654,7 +15654,7 @@
         <v>1643.15576282</v>
       </c>
       <c r="H587">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="588" spans="1:8">
@@ -15680,7 +15680,7 @@
         <v>1643.15576282</v>
       </c>
       <c r="H588">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="589" spans="1:8">
@@ -15706,7 +15706,7 @@
         <v>1643.15576282</v>
       </c>
       <c r="H589">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="590" spans="1:8">
@@ -16148,7 +16148,7 @@
         <v>2006.204662819999</v>
       </c>
       <c r="H606">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="607" spans="1:8">
@@ -16174,7 +16174,7 @@
         <v>2006.204662819999</v>
       </c>
       <c r="H607">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="608" spans="1:8">
@@ -16200,7 +16200,7 @@
         <v>1941.772362819999</v>
       </c>
       <c r="H608">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="609" spans="1:8">
@@ -16226,7 +16226,7 @@
         <v>1975.993162819999</v>
       </c>
       <c r="H609">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="610" spans="1:8">
@@ -16252,7 +16252,7 @@
         <v>2027.882662819999</v>
       </c>
       <c r="H610">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="611" spans="1:8">
@@ -16278,7 +16278,7 @@
         <v>2053.250462819999</v>
       </c>
       <c r="H611">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="612" spans="1:8">
@@ -16304,7 +16304,7 @@
         <v>2053.250462819999</v>
       </c>
       <c r="H612">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="613" spans="1:8">
@@ -16330,7 +16330,7 @@
         <v>2010.53266282</v>
       </c>
       <c r="H613">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="614" spans="1:8">
@@ -16356,7 +16356,7 @@
         <v>2081.26466282</v>
       </c>
       <c r="H614">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="615" spans="1:8">
@@ -16382,7 +16382,7 @@
         <v>2176.57006282</v>
       </c>
       <c r="H615">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="616" spans="1:8">
@@ -16408,7 +16408,7 @@
         <v>2198.56426282</v>
       </c>
       <c r="H616">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="617" spans="1:8">
@@ -16434,7 +16434,7 @@
         <v>2188.22426282</v>
       </c>
       <c r="H617">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="618" spans="1:8">
@@ -16460,7 +16460,7 @@
         <v>2236.73076282</v>
       </c>
       <c r="H618">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="619" spans="1:8">
@@ -16694,7 +16694,7 @@
         <v>2104.80536282</v>
       </c>
       <c r="H627">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="628" spans="1:8">
@@ -16720,7 +16720,7 @@
         <v>2063.45396282</v>
       </c>
       <c r="H628">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="629" spans="1:8">
@@ -16772,7 +16772,7 @@
         <v>2063.097662820001</v>
       </c>
       <c r="H630">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="631" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-19 ZEC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-19 ZEC ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>634.9843987</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>486.6952987000001</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>506.0379987000001</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>405.7186987000001</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>284.9494987</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>1046.4549987</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -652,7 +652,7 @@
         <v>1331.32453634</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>1311.14773634</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>1287.13953634</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>1287.13953634</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>1314.47623634</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>1418.10843634</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>1229.98604298</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>1038.19405747</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>1241.83478539</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>1355.581489160001</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -938,7 +938,7 @@
         <v>1762.31558916</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>1627.65578916</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>1627.65578916</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>1488.217289160001</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>1491.710989160001</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>1252.669189160001</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>1271.718889160001</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>1476.037589160001</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>1579.101589160001</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>1604.656789160001</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>1579.374989160001</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>2903.771090440001</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>3036.66470162</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>2909.31746678</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>3014.20926678</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>2974.72911645</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>3113.41691645</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>3010.25251645</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>3010.25251645</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>2995.47381645</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>2919.71831645</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>3043.50501645</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>3146.75731645</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>3145.83051645</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>3143.04861645</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>3015.51591645</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>2443.70901645</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>2227.96011645</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>3284.11695911</v>
       </c>
       <c r="H275">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>3283.11695911</v>
       </c>
       <c r="H276">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -13522,7 +13522,7 @@
         <v>2011.23180602</v>
       </c>
       <c r="H505">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -13548,7 +13548,7 @@
         <v>2009.83230602</v>
       </c>
       <c r="H506">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -13574,7 +13574,7 @@
         <v>2008.23230602</v>
       </c>
       <c r="H507">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -13600,7 +13600,7 @@
         <v>2008.23230602</v>
       </c>
       <c r="H508">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -13626,7 +13626,7 @@
         <v>2011.48490602</v>
       </c>
       <c r="H509">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -13678,7 +13678,7 @@
         <v>1997.93150602</v>
       </c>
       <c r="H511">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -13730,7 +13730,7 @@
         <v>2006.416006019999</v>
       </c>
       <c r="H513">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -13756,7 +13756,7 @@
         <v>1978.213306019999</v>
       </c>
       <c r="H514">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -13782,7 +13782,7 @@
         <v>1986.05090602</v>
       </c>
       <c r="H515">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -13808,7 +13808,7 @@
         <v>1990.05900602</v>
       </c>
       <c r="H516">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -13834,7 +13834,7 @@
         <v>2023.861006019999</v>
       </c>
       <c r="H517">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -14198,7 +14198,7 @@
         <v>1928.641962</v>
       </c>
       <c r="H531">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -14250,7 +14250,7 @@
         <v>1907.804962</v>
       </c>
       <c r="H533">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -14276,7 +14276,7 @@
         <v>1907.804962</v>
       </c>
       <c r="H534">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -14302,7 +14302,7 @@
         <v>1908.710062</v>
       </c>
       <c r="H535">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -14328,7 +14328,7 @@
         <v>1900.535562</v>
       </c>
       <c r="H536">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -14354,7 +14354,7 @@
         <v>1915.474162</v>
       </c>
       <c r="H537">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -14380,7 +14380,7 @@
         <v>1901.767262</v>
       </c>
       <c r="H538">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -14406,7 +14406,7 @@
         <v>1901.767262</v>
       </c>
       <c r="H539">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -14432,7 +14432,7 @@
         <v>1901.767262</v>
       </c>
       <c r="H540">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -14458,7 +14458,7 @@
         <v>1930.778862</v>
       </c>
       <c r="H541">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -14484,7 +14484,7 @@
         <v>1847.552062</v>
       </c>
       <c r="H542">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -14510,7 +14510,7 @@
         <v>1856.07876282</v>
       </c>
       <c r="H543">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -14536,7 +14536,7 @@
         <v>1856.52716282</v>
       </c>
       <c r="H544">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -14562,7 +14562,7 @@
         <v>1847.20696282</v>
       </c>
       <c r="H545">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="546" spans="1:8">
@@ -14588,7 +14588,7 @@
         <v>1847.76866282</v>
       </c>
       <c r="H546">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -14614,7 +14614,7 @@
         <v>1847.78866282</v>
       </c>
       <c r="H547">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -14640,7 +14640,7 @@
         <v>1681.20866282</v>
       </c>
       <c r="H548">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -14666,7 +14666,7 @@
         <v>1681.20866282</v>
       </c>
       <c r="H549">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -14692,7 +14692,7 @@
         <v>1652.28326282</v>
       </c>
       <c r="H550">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -14718,7 +14718,7 @@
         <v>1652.28326282</v>
       </c>
       <c r="H551">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -14744,7 +14744,7 @@
         <v>1652.28326282</v>
       </c>
       <c r="H552">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -14770,7 +14770,7 @@
         <v>1652.41826282</v>
       </c>
       <c r="H553">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -14796,7 +14796,7 @@
         <v>1664.41826282</v>
       </c>
       <c r="H554">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -14822,7 +14822,7 @@
         <v>1668.15426282</v>
       </c>
       <c r="H555">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="556" spans="1:8">
@@ -14848,7 +14848,7 @@
         <v>1664.74726282</v>
       </c>
       <c r="H556">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="557" spans="1:8">
@@ -14874,7 +14874,7 @@
         <v>1664.74726282</v>
       </c>
       <c r="H557">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="558" spans="1:8">
@@ -14900,7 +14900,7 @@
         <v>1676.74726282</v>
       </c>
       <c r="H558">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="559" spans="1:8">
@@ -14926,7 +14926,7 @@
         <v>1663.97356282</v>
       </c>
       <c r="H559">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="560" spans="1:8">
@@ -14952,7 +14952,7 @@
         <v>1743.23116282</v>
       </c>
       <c r="H560">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="561" spans="1:8">
@@ -14978,7 +14978,7 @@
         <v>1743.25876282</v>
       </c>
       <c r="H561">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="562" spans="1:8">
@@ -15004,7 +15004,7 @@
         <v>1706.18606282</v>
       </c>
       <c r="H562">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="563" spans="1:8">
@@ -15056,7 +15056,7 @@
         <v>1699.88606282</v>
       </c>
       <c r="H564">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="565" spans="1:8">
@@ -15108,7 +15108,7 @@
         <v>1701.22606282</v>
       </c>
       <c r="H566">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="567" spans="1:8">
@@ -15134,7 +15134,7 @@
         <v>1720.48836282</v>
       </c>
       <c r="H567">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="568" spans="1:8">
@@ -15446,7 +15446,7 @@
         <v>1658.60576282</v>
       </c>
       <c r="H579">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="580" spans="1:8">
@@ -15472,7 +15472,7 @@
         <v>1658.90856282</v>
       </c>
       <c r="H580">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="581" spans="1:8">
@@ -15498,7 +15498,7 @@
         <v>1675.28776282</v>
       </c>
       <c r="H581">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="582" spans="1:8">
@@ -15524,7 +15524,7 @@
         <v>1682.07386282</v>
       </c>
       <c r="H582">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="583" spans="1:8">
@@ -15732,7 +15732,7 @@
         <v>1624.05486282</v>
       </c>
       <c r="H590">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="591" spans="1:8">
@@ -15758,7 +15758,7 @@
         <v>1624.03036282</v>
       </c>
       <c r="H591">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="592" spans="1:8">
@@ -15784,7 +15784,7 @@
         <v>1606.70606282</v>
       </c>
       <c r="H592">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="593" spans="1:8">
@@ -15810,7 +15810,7 @@
         <v>1590.87386282</v>
       </c>
       <c r="H593">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="594" spans="1:8">
@@ -15836,7 +15836,7 @@
         <v>1744.52906282</v>
       </c>
       <c r="H594">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="595" spans="1:8">
@@ -15862,7 +15862,7 @@
         <v>1744.004062819999</v>
       </c>
       <c r="H595">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="596" spans="1:8">
@@ -15888,7 +15888,7 @@
         <v>1744.004062819999</v>
       </c>
       <c r="H596">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="597" spans="1:8">
@@ -15914,7 +15914,7 @@
         <v>1757.604062819999</v>
       </c>
       <c r="H597">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="598" spans="1:8">
@@ -15940,7 +15940,7 @@
         <v>1736.447462819999</v>
       </c>
       <c r="H598">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="599" spans="1:8">
@@ -15966,7 +15966,7 @@
         <v>1735.735762819999</v>
       </c>
       <c r="H599">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="600" spans="1:8">
@@ -15992,7 +15992,7 @@
         <v>1735.735762819999</v>
       </c>
       <c r="H600">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="601" spans="1:8">
@@ -16018,7 +16018,7 @@
         <v>1824.629962819999</v>
       </c>
       <c r="H601">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="602" spans="1:8">
@@ -16044,7 +16044,7 @@
         <v>1848.359262819999</v>
       </c>
       <c r="H602">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="603" spans="1:8">
@@ -16070,7 +16070,7 @@
         <v>1996.204662819999</v>
       </c>
       <c r="H603">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="604" spans="1:8">
@@ -16096,7 +16096,7 @@
         <v>1996.204662819999</v>
       </c>
       <c r="H604">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="605" spans="1:8">
@@ -16122,7 +16122,7 @@
         <v>2006.204662819999</v>
       </c>
       <c r="H605">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="606" spans="1:8">
